--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.413799999999998</v>
+        <v>-7.458299999999996</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.6407</v>
+        <v>-11.5533</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.9766</v>
+        <v>-13.13919999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.7625</v>
+        <v>-12.4191</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.439</v>
+        <v>-12.58350000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -859,10 +859,10 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-14.07709999999999</v>
+        <v>-14.25479999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.985200000000001</v>
+        <v>-8.048</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.4284</v>
+        <v>-12.80270000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.8489</v>
+        <v>-8.710700000000005</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.86530000000001</v>
+        <v>-10.82660000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.650400000000007</v>
+        <v>-8.560300000000009</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.782299999999998</v>
+        <v>-8.122700000000002</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.4499</v>
+        <v>-7.327699999999998</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.897499999999997</v>
+        <v>-7.723499999999996</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.777399999999996</v>
+        <v>-7.873799999999996</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1335,7 +1335,7 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.3601</v>
+        <v>-10.48180000000001</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.044399999999998</v>
+        <v>-8.321399999999999</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.024999999999997</v>
+        <v>-7.934299999999999</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1403,10 +1403,10 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.1583</v>
+        <v>-14.02569999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.2156</v>
+        <v>-8.2987</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.61879999999999</v>
+        <v>-12.66859999999999</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.7822</v>
+        <v>-10.914</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.567299999999997</v>
+        <v>-7.798699999999999</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-10.92120000000001</v>
+        <v>-10.77600000000002</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.8368</v>
+        <v>-13.74949999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.1978</v>
+        <v>-6.082800000000001</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.980200000000005</v>
+        <v>-8.120300000000004</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.3474</v>
+        <v>-10.3765</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.314100000000002</v>
+        <v>-6.337300000000002</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.37280000000001</v>
+        <v>-11.4566</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
